--- a/New_Train_Module.xlsx
+++ b/New_Train_Module.xlsx
@@ -8,14 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://capgemini-my.sharepoint.com/personal/koteru-hemalatha_koteru-hemalatha_capgemini_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="278" documentId="8_{DF559106-6D51-4C06-A6B1-358C2350CAE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FCFF1C6-3B63-44A6-A3F9-59022BCE4D98}"/>
+  <xr:revisionPtr revIDLastSave="1296" documentId="8_{DF559106-6D51-4C06-A6B1-358C2350CAE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A17793E0-07A4-4081-B47D-36028F12C307}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{E6EECF8A-0418-424C-BBC7-51E54899AF74}"/>
+    <workbookView minimized="1" xWindow="1060" yWindow="1060" windowWidth="14400" windowHeight="8170" xr2:uid="{E6EECF8A-0418-424C-BBC7-51E54899AF74}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId1"/>
+    <sheet name="User Stories" sheetId="1" r:id="rId2"/>
+    <sheet name="Test Scenarios" sheetId="3" r:id="rId3"/>
+    <sheet name="Test Cases" sheetId="4" r:id="rId4"/>
+    <sheet name="Test Execution Summary" sheetId="5" r:id="rId5"/>
+    <sheet name="Defect Report" sheetId="7" r:id="rId6"/>
+    <sheet name="RTM" sheetId="6" r:id="rId7"/>
+    <sheet name="Summary Report to Stakeholders" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="472">
   <si>
     <t>Epic</t>
   </si>
@@ -344,12 +349,6 @@
     <t>To verify that entering valid Source, Destination, and Date details and clicking Search displays available trains.</t>
   </si>
   <si>
-    <t>To verify that entering invalid routes displays “No trains found” message.</t>
-  </si>
-  <si>
-    <t>To verify that leaving required fields blank displays “Please enter all details” message.</t>
-  </si>
-  <si>
     <t>To verify that sorting trains by Departure Time works correctly.</t>
   </si>
   <si>
@@ -462,9 +461,6 @@
   </si>
   <si>
     <t>Remarks/Comments</t>
-  </si>
-  <si>
-    <t>SE_websiteURL_01</t>
   </si>
   <si>
     <t>Verify search train functionality 
@@ -627,9 +623,6 @@
 and enter the website URL</t>
   </si>
   <si>
-    <t>Website page is displayed, user is ready to login</t>
-  </si>
-  <si>
     <t>Website page is displayed
 , user is ready to login</t>
   </si>
@@ -657,20 +650,1112 @@
   <si>
     <t xml:space="preserve">
 1.user already  selected source,destination and time and clicked on search. Now user lanaded on search page</t>
+  </si>
+  <si>
+    <t>1.user should come back to home page of trains.
+2.user should click on "Running status"  of Explore More With ixigo in home page of trains.
+3.user should entered valid train number or name.</t>
+  </si>
+  <si>
+    <t>1.user clicked on "Running status"  of Explore More With ixigo in home page of trains
+2.user should enter invalid 
+train number/name.</t>
+  </si>
+  <si>
+    <t>1.user clicked on "Running status"  of Explore More With ixigo in home page of trains.
+2.user should enter train number or name and click on "search".</t>
+  </si>
+  <si>
+    <t>1.user should come 
+back to home page of trains.
+2.user should click on "Search by station"  of Explore More With ixigo in home page of trains.
+3.user should enter valid station name/code.</t>
+  </si>
+  <si>
+    <t>1.user should clicked on "Search by station"  of Explore More With ixigo in home page of trains.
+3.user should enter invalid station name/code.</t>
+  </si>
+  <si>
+    <t>Website page is displayed,
+ user is ready to login</t>
+  </si>
+  <si>
+    <t>Verify that entering an invalid train number displays an error messageGiven: User is on Platform Locator pageWhen: User enters an invalid train number and clicks SearchThen: Error message should be displayed</t>
+  </si>
+  <si>
+    <t>Verify that applying Best Available filter displays trains with maximum seat availabilityGiven: User is on Train search results pageWhen: User applies Best Available filterThen: Train list should display trains with maximum seat availability</t>
+  </si>
+  <si>
+    <t>Verify that applying AC Only filter displays only AC coachesGiven: User is on Train search results pageWhen: User applies AC Only filterThen: Train list should display only AC coaches</t>
+  </si>
+  <si>
+    <t>Verify that applying Tatkal Only filter displays Tatkal quota trainsGiven: User is on Train search results pageWhen: User applies Tatkal Only filterThen: Train list should display only Tatkal quota trains</t>
+  </si>
+  <si>
+    <t>Verify that applying multiple filters displays combined resultsGiven: User is on Train search results pageWhen: User applies multiple filters (e.g., AC + Tatkal)Then: Train list should display combined results</t>
+  </si>
+  <si>
+    <t>Verify that toggling filter ON/OFF applies or removes filter correctly without breaking UIGiven: User is on Train search results pageWhen: User toggles filter ON/OFFThen: Filter should apply or remove correctly without UI issues</t>
+  </si>
+  <si>
+    <t>Verify Book Now button visibility and clickability
+Given: User is on Train search page with train results
+When: User views the list of available trains
+Then: "Book Now" button should be visible and clickable for each available train</t>
+  </si>
+  <si>
+    <t>1.user should clicked on "Search by station"  of Explore More With ixigo in home page of trains.
+2.user should enter valid station name/code and click on search</t>
+  </si>
+  <si>
+    <t>1.user should come back to home page of trains.
+2.user should click on "train platform locator"  of Explore More With ixigo in home page of trains.
+3.user should enter valid train name or number.</t>
+  </si>
+  <si>
+    <t>1.user should click on "train platform locator"  of Explore More With ixigo in home page of trains.
+2.user should enter invalid train name or number.</t>
+  </si>
+  <si>
+    <t>1.user should clicked on "Train Seat Availablity"  of Explore More With ixigo in home page of trains.
+2.user should selected source,destination and time and clicked on "Check Availabilty"</t>
+  </si>
+  <si>
+    <t>1. Open Browser
+2. Enter URL for the website</t>
+  </si>
+  <si>
+    <t>1. Select value from drop down</t>
+  </si>
+  <si>
+    <t>1. Enter Mobile Number
+2. Click on Get OTP</t>
+  </si>
+  <si>
+    <t>1. Enter Mobile Number
+2. Click on Get OTP
+3. Enter OTP</t>
+  </si>
+  <si>
+    <t>1. Click on sign up with Google account
+2. Enter Gmail</t>
+  </si>
+  <si>
+    <t>1.Enter source
+2.Enter destination
+3.Enter date
+4.click on search</t>
+  </si>
+  <si>
+    <t>1.Enter date
+2.click on search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.choose class </t>
+  </si>
+  <si>
+    <t>1.choose quota</t>
+  </si>
+  <si>
+    <t>1.click on departure time</t>
+  </si>
+  <si>
+    <t>1.click on arrival  time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.click on name </t>
+  </si>
+  <si>
+    <t>1.Enter tain number or name
+2.click on search</t>
+  </si>
+  <si>
+    <t>1.click on duration time</t>
+  </si>
+  <si>
+    <t>1.Enter train number or name
+2.click on search</t>
+  </si>
+  <si>
+    <t>1.Enter train number or name
+2.click on search 
+3.check "download" prompt is visible or not</t>
+  </si>
+  <si>
+    <t>1.Enter station name /code
+2.click on search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Enter station name /code
+2.click on search
+3.check "Book Now" </t>
+  </si>
+  <si>
+    <t>1.Click on Best Available filter</t>
+  </si>
+  <si>
+    <t>1.Click on Tatkal filter</t>
+  </si>
+  <si>
+    <t>1.Click on any two options filter</t>
+  </si>
+  <si>
+    <t>1.double click on an option filter</t>
+  </si>
+  <si>
+    <t>1.Click on AC only filter</t>
+  </si>
+  <si>
+    <t>1. Check refund option 
+availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.https://www.ixigo.com</t>
+  </si>
+  <si>
+    <t>1. +91</t>
+  </si>
+  <si>
+    <t>1. 9876543210</t>
+  </si>
+  <si>
+    <t>1. 987+9876</t>
+  </si>
+  <si>
+    <t>1. hemalathakoteru@gmail.com</t>
+  </si>
+  <si>
+    <t>1.Hyderabad Decan (HYB)
+2.Ksr Bengaluru (SBC)
+3.select date</t>
+  </si>
+  <si>
+    <t>1.Medikurthy
+2.Ksr Bengaluru (SBC)
+3.select date</t>
+  </si>
+  <si>
+    <t>1.select date</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>1.2A</t>
+  </si>
+  <si>
+    <t>1.Ladies</t>
+  </si>
+  <si>
+    <t>1.20503 Rajdhani Exp</t>
+  </si>
+  <si>
+    <t>1.123abc</t>
+  </si>
+  <si>
+    <t>1.New Delhi (NDLS)</t>
+  </si>
+  <si>
+    <t>1.Janshatabdi Exp - 12070</t>
+  </si>
+  <si>
+    <t>The user should get OTP on given number</t>
+  </si>
+  <si>
+    <t>It will display the error message</t>
+  </si>
+  <si>
+    <t>It will display the error message 
+for invalid number</t>
+  </si>
+  <si>
+    <t>It will display 'enter mobile number'</t>
+  </si>
+  <si>
+    <t>It should display train data.</t>
+  </si>
+  <si>
+    <t>Error message should display</t>
+  </si>
+  <si>
+    <t>Refund option should be visible and clickable</t>
+  </si>
+  <si>
+    <t>Train data should display for selected class</t>
+  </si>
+  <si>
+    <t>Train data should display for selected quota</t>
+  </si>
+  <si>
+    <t>Train list should be sorted 
+by departure time</t>
+  </si>
+  <si>
+    <t>Train list should be sorted by 
+arrival time</t>
+  </si>
+  <si>
+    <t>Train list should be sorted by 
+duration time</t>
+  </si>
+  <si>
+    <t>Train list should be sorted 
+alphabetically</t>
+  </si>
+  <si>
+    <t>Live status should display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ download prompt should appear.</t>
+  </si>
+  <si>
+    <t>It should display error message.</t>
+  </si>
+  <si>
+    <t>“Book Now” button should be 
+visible and clickable</t>
+  </si>
+  <si>
+    <t>Platform number should display</t>
+  </si>
+  <si>
+    <t>It should display error message</t>
+  </si>
+  <si>
+    <t>Trains sorted by max seat availability</t>
+  </si>
+  <si>
+    <t>Only AC coaches displayed</t>
+  </si>
+  <si>
+    <t>Trains with Tatkal quota displayed</t>
+  </si>
+  <si>
+    <t>Train data display based on multiple filters</t>
+  </si>
+  <si>
+    <t>Filter remains ON or OFF consistently, 
+no UI break</t>
+  </si>
+  <si>
+    <t>The homepage remains accessible, and the user can interact with navigation elements without errors.</t>
+  </si>
+  <si>
+    <t>The selected country code persists in
+ the dropdown, and the interface remains 
+responsive for further input.</t>
+  </si>
+  <si>
+    <t>OTP is successfully generated and displayed; the user can proceed to enter OTP without page reload or errors.</t>
+  </si>
+  <si>
+    <t>An error message is displayed, and the login form remains active for retry without breaking functionality.</t>
+  </si>
+  <si>
+    <t>The error message is shown, and the user 
+can correct the input without being 
+redirected or losing session.</t>
+  </si>
+  <si>
+    <t>User clicked on sign-up with Gmail and entered credentials; user is redirected to the homepage with active session, and all navigation options remain functional.</t>
+  </si>
+  <si>
+    <t>User entered valid source, destination, and date, then clicked searchthen train results page loads successfully and train data is displayed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> User entered invalid source and valid destination with date, then clicked search; error message is displayed and search form remains editable for new input.</t>
+  </si>
+  <si>
+    <t>User entered only date and clicked search; error message is displayed and date field remains editable for correction.</t>
+  </si>
+  <si>
+    <t>User checked the refund option and it is visible and clickable on the home page.</t>
+  </si>
+  <si>
+    <t>User selected class and train list 
+displays trains for the selected class.</t>
+  </si>
+  <si>
+    <t>User selected a quota and train list displays trains for the chosen quota.</t>
+  </si>
+  <si>
+    <t>User clicked on departure time sort 
+and train list is sorted by departure time.</t>
+  </si>
+  <si>
+    <t>User clicked on arrival time sort 
+and train list is sorted by arrival time.</t>
+  </si>
+  <si>
+    <t>User clicked on duration sort and 
+train list is sorted by duration.</t>
+  </si>
+  <si>
+    <t>User clicked on name sort and train list is 
+sorted alphabetically.</t>
+  </si>
+  <si>
+    <t>User entered a valid train number/name 
+and live train status is displayed.</t>
+  </si>
+  <si>
+    <t>User entered an invalid train number/name 
+and error message is displayed.</t>
+  </si>
+  <si>
+    <t>User clicked on search and the 
+download prompt appeared on the screen</t>
+  </si>
+  <si>
+    <t>User entered a valid station name/code and
+ train data is displayed.</t>
+  </si>
+  <si>
+    <t>User entered an invalid station name/code 
+and error message is displayed.</t>
+  </si>
+  <si>
+    <t>User searched with a valid station 
+name/code and “Book Now” button is visible and clickable.</t>
+  </si>
+  <si>
+    <t>User entered a valid train name/number 
+and platform number is displayed.</t>
+  </si>
+  <si>
+    <t>User entered an invalid train name/number 
+and error message is displayed.</t>
+  </si>
+  <si>
+    <t>User applied Best Available filter and 
+trains are sorted by maximum seat availability.</t>
+  </si>
+  <si>
+    <t>User applied Tatkal filter and trains with 
+Tatkal quota are displayed.</t>
+  </si>
+  <si>
+    <t>Train list is updated to show only 
+trains with Tatkal quota.</t>
+  </si>
+  <si>
+    <t>User applied multiple filters and train list displays based on all selected filters.</t>
+  </si>
+  <si>
+    <t>User toggled filter ON/OFF and filter state updates correctly without UI break.</t>
+  </si>
+  <si>
+    <t>The drop down should display the 
+selected code</t>
+  </si>
+  <si>
+    <t>Functional Testing</t>
+  </si>
+  <si>
+    <t>On entering the website URL, 
+it opens the landing page.</t>
+  </si>
+  <si>
+    <t>User got OTP</t>
+  </si>
+  <si>
+    <t>It displayed the error message</t>
+  </si>
+  <si>
+    <t>It displayed 'enter mobile number'</t>
+  </si>
+  <si>
+    <t>No error message</t>
+  </si>
+  <si>
+    <t>Train data should display 
+for selected class</t>
+  </si>
+  <si>
+    <t>Train data should display 
+for selected quota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Train list should be sorted by departure time
+</t>
+  </si>
+  <si>
+    <t>Train list should be sorted 
+ by arrival time</t>
+  </si>
+  <si>
+    <t>Train list should be sorted by
+ duration time</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> download prompt should appear</t>
+  </si>
+  <si>
+    <t>Train data display based on multiple 
+filters</t>
+  </si>
+  <si>
+    <t>The drop down displayed the selected 
+code</t>
+  </si>
+  <si>
+    <t>passed</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>failed</t>
+  </si>
+  <si>
+    <t>Login Functionality</t>
+  </si>
+  <si>
+    <t>SA_SeatAvailability_01</t>
+  </si>
+  <si>
+    <t>SA_SeatAvailability_02</t>
+  </si>
+  <si>
+    <t>SA_SeatAvailability_03</t>
+  </si>
+  <si>
+    <t>SA_SeatAvailability_05</t>
+  </si>
+  <si>
+    <t>SA_SeatAvailability_04</t>
+  </si>
+  <si>
+    <t>LF_Login Functionality_01</t>
+  </si>
+  <si>
+    <t>LF_Login Functionality_02</t>
+  </si>
+  <si>
+    <t>LF_Login Functionality_03</t>
+  </si>
+  <si>
+    <t>LF_Login Functionality_04</t>
+  </si>
+  <si>
+    <t>LF_Login Functionality_05</t>
+  </si>
+  <si>
+    <t>SF_Search Functionality_01</t>
+  </si>
+  <si>
+    <t>SF_Search Functionality_02</t>
+  </si>
+  <si>
+    <t>SF_Search Functionality_03</t>
+  </si>
+  <si>
+    <t>SF_Search Functionality_04</t>
+  </si>
+  <si>
+    <t>CQ_ClassQuota_01</t>
+  </si>
+  <si>
+    <t>CQ_ClassQuota_02</t>
+  </si>
+  <si>
+    <t>SF_Sort Functionality_01</t>
+  </si>
+  <si>
+    <t>SF_Sort Functionality_02</t>
+  </si>
+  <si>
+    <t>SF_Sort Functionality_03</t>
+  </si>
+  <si>
+    <t>SF_Sort Functionality_04</t>
+  </si>
+  <si>
+    <t>LS_Live Status_01</t>
+  </si>
+  <si>
+    <t>LS_Live Status_02</t>
+  </si>
+  <si>
+    <t>DP_Download Prompt_01</t>
+  </si>
+  <si>
+    <t>SS_Station Search_01</t>
+  </si>
+  <si>
+    <t>SS_Station Search_02</t>
+  </si>
+  <si>
+    <t>BN_Book Now Button_01</t>
+  </si>
+  <si>
+    <t>PL_Platform Locator_01</t>
+  </si>
+  <si>
+    <t>PL_Platform Locator_02</t>
+  </si>
+  <si>
+    <t>Project Name</t>
+  </si>
+  <si>
+    <t>Total Class</t>
+  </si>
+  <si>
+    <t>Total Passed</t>
+  </si>
+  <si>
+    <t>Total Failed</t>
+  </si>
+  <si>
+    <t>Pass Percentage</t>
+  </si>
+  <si>
+    <t>Fail Percentage</t>
+  </si>
+  <si>
+    <t>Complition Percentage</t>
+  </si>
+  <si>
+    <t>Website URL</t>
+  </si>
+  <si>
+    <t>Class and Quota functionality</t>
+  </si>
+  <si>
+    <t>Sort Train functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Live Running Status functionality</t>
+  </si>
+  <si>
+    <t>Download App” prompt 
+functionality</t>
+  </si>
+  <si>
+    <t>Station Name or Code functionality</t>
+  </si>
+  <si>
+    <t>“Book Now” functionality</t>
+  </si>
+  <si>
+    <t>Platform Locator functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Train Seat Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>Test Scenario</t>
+  </si>
+  <si>
+    <t>Total Test Cases Executed</t>
+  </si>
+  <si>
+    <t>BR_ID</t>
+  </si>
+  <si>
+    <t>TR_ID</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>DR_ID</t>
+  </si>
+  <si>
+    <t>TS_27</t>
+  </si>
+  <si>
+    <t>TS_28</t>
+  </si>
+  <si>
+    <t>TS_29</t>
+  </si>
+  <si>
+    <t>WU_websiteURL_01</t>
+  </si>
+  <si>
+    <t>DI_02</t>
+  </si>
+  <si>
+    <t>DI_01</t>
+  </si>
+  <si>
+    <t>BR_01</t>
+  </si>
+  <si>
+    <t>TR_11</t>
+  </si>
+  <si>
+    <t>To Verify choosing Class updates train list</t>
+  </si>
+  <si>
+    <t>To Verify choosing Quota updates train list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                            Test Execution Summary</t>
+  </si>
+  <si>
+    <t>DefectId</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Steps to reproduce</t>
+  </si>
+  <si>
+    <t>Expected Behaviour</t>
+  </si>
+  <si>
+    <t>Actual Behaviour</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>Reported By</t>
+  </si>
+  <si>
+    <t>Reported On</t>
+  </si>
+  <si>
+    <t>Assigned To</t>
+  </si>
+  <si>
+    <t>Current Status</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>Error message 
+not displayed for invalid source and destination during train search</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When the user
+ enters an invalid source and destination along with a valid date on the Train Search page and clicks </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, the application does not display the expected error message.</t>
+    </r>
+  </si>
+  <si>
+    <t>v1.0</t>
+  </si>
+  <si>
+    <t>Launch Ixigo Train Search page.
+Ensure the user is logged in and on the home page.
+Enter invalid source (e.g., Medikurthy).
+Enter valid destination (e.g., KSR Bengaluru (SBC)).
+Select a valid date.
+Click Search.</t>
+  </si>
+  <si>
+    <t>An error message 
+should be displayed indicating invalid source/destination, and the search form should remain editable for new input.</t>
+  </si>
+  <si>
+    <t>No error message is displayed; the system does not provide feedback for invalid source/destination.</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>hema@gmail.com</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Windows 11/ Chrome 130</t>
+  </si>
+  <si>
+    <t>Error message 
+not displayed for invalid train number in Platform Locator</t>
+  </si>
+  <si>
+    <t>When the user 
+enters an invalid train number or name on the Platform Locator page and clicks Search, the application does not display the expected error message.</t>
+  </si>
+  <si>
+    <t>Navigate to Platform Locator under "Explore More With Ixigo".
+Enter an invalid train number or name (e.g., 123abc).
+Click Search.</t>
+  </si>
+  <si>
+    <t>An error message should be displayed indicating invalid train number/name.</t>
+  </si>
+  <si>
+    <t>No error message is displayed; the system fails to notify the user about invalid input.</t>
+  </si>
+  <si>
+    <t>1.Test Objective:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                               Test Summary Report format</t>
+  </si>
+  <si>
+    <t>The objective of testing the Train Module on the Ixigo website is to ensure that all its features — including train search, sorting, quota and class selection, live train status, platform locator, and seat availability — function correctly and meet user requirements. Testing aims to validate usability, accuracy of information, and seamless integration of features to provide a reliable and convenient booking experience.</t>
+  </si>
+  <si>
+    <t>The Train Module on Ixigo offers users a platform to plan and book train journeys online. 
+It enables users to search for trains by entering source, destination, and travel date, 
+apply filters for travel classes and quotas, and sort results by departure time, arrival time,
+ duration, or train name. Additional features include live train running status, platform 
+locator for station guidance, and seat availability checks with options like AC and 
+Tatkal. The module is designed to deliver a smooth, user-friendly experience for train travelers.</t>
+  </si>
+  <si>
+    <t>3.Testing Scope:</t>
+  </si>
+  <si>
+    <t>2.Application Overview:</t>
+  </si>
+  <si>
+    <t>Search Functionality</t>
+  </si>
+  <si>
+    <t>In Scope</t>
+  </si>
+  <si>
+    <t>Offers &amp; Discounts section</t>
+  </si>
+  <si>
+    <t>Performance and Load Testing</t>
+  </si>
+  <si>
+    <t>API Security Testing</t>
+  </si>
+  <si>
+    <t>Multi-language Support</t>
+  </si>
+  <si>
+    <t>Areas not covered</t>
+  </si>
+  <si>
+    <t>Verify that entering a valid train number displays platform number
+Given: User is on Platform Locator page
+When: User enters a valid train number and clicks SearchThen: Platform number should be displayed</t>
+  </si>
+  <si>
+    <t>Payment gateway functionality</t>
+  </si>
+  <si>
+    <t>Live train running status</t>
+  </si>
+  <si>
+    <t>Total number of test cases planned:</t>
+  </si>
+  <si>
+    <t>Total number of Test cases Executed:</t>
+  </si>
+  <si>
+    <t>Total number of Test cases Passed:</t>
+  </si>
+  <si>
+    <t>Total number of Test cases Failed:</t>
+  </si>
+  <si>
+    <t>4.Test Metrices:</t>
+  </si>
+  <si>
+    <t>Total number of Test cases Planned</t>
+  </si>
+  <si>
+    <t>Total number of Test cases Executed</t>
+  </si>
+  <si>
+    <t>Total number of Test cases Passed</t>
+  </si>
+  <si>
+    <t>Total number of Test cases Failed</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>Functional testing is a type of software testing that verifies that a system or 
+application functions correctly according to its specifications or requirements. 
+This type of testing fouces the functionality of the software and ensuring that it behaves as expected
+from the end user's perspective.</t>
+  </si>
+  <si>
+    <t>5.Types of Testing performed</t>
+  </si>
+  <si>
+    <t>6.Test Environment and Tools Used</t>
+  </si>
+  <si>
+    <t>Application URL</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Tools Used</t>
+  </si>
+  <si>
+    <t>MS Excel</t>
+  </si>
+  <si>
+    <t>https://www.Ixigo.com</t>
+  </si>
+  <si>
+    <t>7.Recommendations and Suggestions:</t>
+  </si>
+  <si>
+    <t>Improve serach speed and mobile responsiveness</t>
+  </si>
+  <si>
+    <t>Enhance Mobile Responsiveness</t>
+  </si>
+  <si>
+    <t>Optimize Auto-Suggestion Rendering</t>
+  </si>
+  <si>
+    <t>Website launched successfully .</t>
+  </si>
+  <si>
+    <t>Country code selection works as expected.</t>
+  </si>
+  <si>
+    <t>Login with valid mobile number and OTP successful</t>
+  </si>
+  <si>
+    <t>Error message displayed correctly for invalid OTP</t>
+  </si>
+  <si>
+    <t>Error message displayed correctly for invalid mobile number</t>
+  </si>
+  <si>
+    <t>Login with Gmail account works and redirects properly.</t>
+  </si>
+  <si>
+    <t>Train data displayed for valid source, destination, and date.</t>
+  </si>
+  <si>
+    <t>Failed: No error message for invalid source/destination</t>
+  </si>
+  <si>
+    <t>Error message displayed for missing source/destination.</t>
+  </si>
+  <si>
+    <t>Refund option visible and clickable.</t>
+  </si>
+  <si>
+    <t>rain list updates correctly when class is selected</t>
+  </si>
+  <si>
+    <t>Train list updates correctly when quota is selected.</t>
+  </si>
+  <si>
+    <t>Sorting by departure time works correctly.</t>
+  </si>
+  <si>
+    <t>Sorting by arrival time works correctly.</t>
+  </si>
+  <si>
+    <t>Sorting by duration works correctly.</t>
+  </si>
+  <si>
+    <t>Sorting by name works correctly.</t>
+  </si>
+  <si>
+    <t>Live status displayed for valid train number/name.</t>
+  </si>
+  <si>
+    <t>Error message displayed for invalid train number/name.</t>
+  </si>
+  <si>
+    <t>Download prompt appears after clicking search.</t>
+  </si>
+  <si>
+    <t>Train data displayed for valid station name/code</t>
+  </si>
+  <si>
+    <t>Error message displayed for invalid station name/code</t>
+  </si>
+  <si>
+    <t>Book Now button visible and clickable for available trains.</t>
+  </si>
+  <si>
+    <t>Platform number displayed for valid train number</t>
+  </si>
+  <si>
+    <t>Failed: No error message for invalid train number</t>
+  </si>
+  <si>
+    <t>Best Available filter works correctly.</t>
+  </si>
+  <si>
+    <t>AC Only filter works correctly.</t>
+  </si>
+  <si>
+    <t>Tatkal Only filter works correctly.</t>
+  </si>
+  <si>
+    <t>Multiple filters applied correctly.</t>
+  </si>
+  <si>
+    <t>Filter toggle ON/OFF works without UI issues.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epic 1  :Ixigo Train </t>
+  </si>
+  <si>
+    <t>hema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              Requirement Traceability Matrix</t>
+  </si>
+  <si>
+    <t>1. All the test cases that were planned are executed successfully.</t>
+  </si>
+  <si>
+    <t>2.No critical defects impacting the core functionality of the website.</t>
+  </si>
+  <si>
+    <t>3. All the identified issues are documented with clear steps to reproduce and resolve.</t>
+  </si>
+  <si>
+    <t>8.Exit Creteria:</t>
+  </si>
+  <si>
+    <t>9.Sign Off</t>
+  </si>
+  <si>
+    <t>Out of Scope</t>
+  </si>
+  <si>
+    <t>Considering that all planned test cases have been executed, with a high pass rate
+ (27 out of 29 passed) and the identified defects being of major priority but low impact
+ on core functionality, the testing team recommends proceeding with the release of the 
+Train Module. The unresolved issues related to error messages for invalid inputs can be
+ addressed in subsequent releases. Overall, the module meets the critical functional
+ requirements and is ready for deployment.</t>
+  </si>
+  <si>
+    <t>To verify that leaving required fields blank displays error message.</t>
+  </si>
+  <si>
+    <t>To verify that entering invalid routes displays error message.</t>
+  </si>
+  <si>
+    <t>Verify “Get a full train fare refund” option</t>
+  </si>
+  <si>
+    <t>BR_02</t>
+  </si>
+  <si>
+    <t>Batch:</t>
+  </si>
+  <si>
+    <t>Sprint Date:</t>
+  </si>
+  <si>
+    <t>Application under Test:</t>
+  </si>
+  <si>
+    <t>S.No</t>
+  </si>
+  <si>
+    <t>Chintala Nandini</t>
+  </si>
+  <si>
+    <t>Flights page</t>
+  </si>
+  <si>
+    <t>Train page</t>
+  </si>
+  <si>
+    <t>Vanga sowmya</t>
+  </si>
+  <si>
+    <t>Hotels page</t>
+  </si>
+  <si>
+    <t>V&amp;V Automation 26 th august 
+2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	6 th nov 2025- 18th  nov 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Associates Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Koteru Hemalatha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Sidda Chitti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Byrisetti Sailakshmi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Module undet test	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Train page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Bus page</t>
+  </si>
+  <si>
+    <t>BR_03</t>
+  </si>
+  <si>
+    <t>BR_04</t>
+  </si>
+  <si>
+    <t>BR_05</t>
+  </si>
+  <si>
+    <t>Build Version</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -715,8 +1800,120 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF424242"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF242424"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color rgb="FF242424"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -729,8 +1926,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9BC2E6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -801,35 +2028,320 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -843,6 +2355,59 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>34017</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>158751</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>461808</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>500792</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E261853A-564B-F89D-75B7-A42584501BBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="646338" y="11316608"/>
+          <a:ext cx="10247613" cy="2451148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1161,11 +2726,139 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A1554E-1D57-450C-846F-7FD3BFFBB396}">
+  <dimension ref="B4:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="20.7265625" customWidth="1"/>
+    <col min="3" max="3" width="38.26953125" customWidth="1"/>
+    <col min="4" max="4" width="19.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="92" t="s">
+        <v>450</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B5" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="C5" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B6" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B8" s="68" t="s">
+        <v>453</v>
+      </c>
+      <c r="C8" s="68" t="s">
+        <v>461</v>
+      </c>
+      <c r="D8" s="68" t="s">
+        <v>465</v>
+      </c>
+      <c r="E8" s="68" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B9" s="93">
+        <v>1</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B10" s="93">
+        <v>2</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B11" s="93">
+        <v>3</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B12" s="93">
+        <v>4</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B13" s="94">
+        <v>5</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>470</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED365E0E-5A31-4A31-B18E-F2B90D9D236F}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="C1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A9" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1177,190 +2870,160 @@
     <col min="6" max="6" width="52.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C1" s="9" t="s">
+    <row r="1" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C1" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.4">
-      <c r="C2" s="10" t="s">
+    <row r="2" spans="3:6" ht="16" x14ac:dyDescent="0.4">
+      <c r="C2" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.5">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="8" t="s">
+    </row>
+    <row r="4" spans="3:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="141.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="4" t="s">
+    <row r="5" spans="3:6" ht="141.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="73" t="s">
+        <v>436</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="74.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="4" t="s">
+    <row r="6" spans="3:6" ht="74.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="74"/>
+      <c r="D6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="141" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="4" t="s">
+    <row r="7" spans="3:6" ht="141" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="74"/>
+      <c r="D7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="90.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="4" t="s">
+    <row r="8" spans="3:6" ht="90.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="74"/>
+      <c r="D8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="58" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="4" t="s">
+    <row r="9" spans="3:6" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="74"/>
+      <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="4" t="s">
+    <row r="10" spans="3:6" ht="72" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="74"/>
+      <c r="D10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="4" t="s">
+    <row r="11" spans="3:6" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="74"/>
+      <c r="D11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="91" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="4" t="s">
+    <row r="12" spans="3:6" ht="91" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="74"/>
+      <c r="D12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="167.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="4" t="s">
+    <row r="13" spans="3:6" ht="167.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="75"/>
+      <c r="D13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C5:C13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715D3198-637A-4CFC-AC85-02DDECDC47E5}">
-  <dimension ref="B3:F29"/>
+  <dimension ref="B3:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A2" zoomScale="76" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1371,24 +3034,24 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" ht="21" x14ac:dyDescent="0.5">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="38" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B4">
+      <c r="B4" s="26">
         <v>1</v>
       </c>
       <c r="C4" t="s">
@@ -1400,12 +3063,12 @@
       <c r="E4" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>109</v>
+      <c r="F4" s="39" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B5">
+      <c r="B5" s="26">
         <v>2</v>
       </c>
       <c r="C5" t="s">
@@ -1417,44 +3080,48 @@
       <c r="E5" t="s">
         <v>68</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="28" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B6" s="26"/>
       <c r="E6" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="28" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B7" s="26"/>
       <c r="E7" t="s">
         <v>70</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="28" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B8" s="26"/>
       <c r="E8" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="28" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B9" s="26"/>
       <c r="E9" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="28" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B10">
+      <c r="B10" s="26">
         <v>3</v>
       </c>
       <c r="C10" t="s">
@@ -1466,223 +3133,267 @@
       <c r="E10" t="s">
         <v>73</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="28" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B11" s="26"/>
       <c r="E11" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="15" t="s">
-        <v>83</v>
+      <c r="F11" s="28" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B12" s="26"/>
       <c r="E12" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="15" t="s">
-        <v>84</v>
+      <c r="F12" s="28" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13" t="s">
-        <v>37</v>
-      </c>
+      <c r="B13" s="26"/>
       <c r="E13" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="15" t="s">
-        <v>85</v>
+      <c r="F13" s="28" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B14" s="26"/>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
       <c r="E14" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="15" t="s">
-        <v>86</v>
+      <c r="F14" s="28" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B15" s="26"/>
       <c r="E15" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="15" t="s">
-        <v>87</v>
+      <c r="F15" s="28" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B16" s="26">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
       <c r="E16" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="15" t="s">
-        <v>88</v>
+      <c r="F16" s="28" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B17">
-        <v>5</v>
-      </c>
-      <c r="C17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" t="s">
-        <v>40</v>
-      </c>
+      <c r="B17" s="26"/>
       <c r="E17" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="15" t="s">
-        <v>89</v>
+      <c r="F17" s="28" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B18" s="26"/>
       <c r="E18" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="15" t="s">
-        <v>90</v>
+      <c r="F18" s="28" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B19">
-        <v>6</v>
-      </c>
-      <c r="C19" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" t="s">
-        <v>43</v>
-      </c>
+      <c r="B19" s="26"/>
       <c r="E19" t="s">
         <v>39</v>
       </c>
-      <c r="F19" t="s">
-        <v>95</v>
+      <c r="F19" s="28" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B20">
-        <v>7</v>
+      <c r="B20" s="26">
+        <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E20" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="15" t="s">
-        <v>96</v>
+      <c r="F20" s="28" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B21" s="26"/>
       <c r="E21" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="15" t="s">
-        <v>97</v>
+      <c r="F21" s="28" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B22">
-        <v>8</v>
+      <c r="B22" s="26">
+        <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E22" t="s">
         <v>44</v>
       </c>
-      <c r="F22" t="s">
-        <v>99</v>
+      <c r="F22" s="28" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B23">
-        <v>9</v>
+      <c r="B23" s="26">
+        <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D23" t="s">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="E23" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="15" t="s">
-        <v>101</v>
+      <c r="F23" s="28" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B24" s="26"/>
       <c r="E24" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="15" t="s">
-        <v>90</v>
+      <c r="F24" s="28" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B25">
-        <v>10</v>
+      <c r="B25" s="26">
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D25" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E25" t="s">
         <v>48</v>
       </c>
-      <c r="F25" s="15" t="s">
-        <v>102</v>
+      <c r="F25" s="28" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B26" s="26">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" t="s">
+        <v>108</v>
+      </c>
       <c r="E26" t="s">
         <v>49</v>
       </c>
-      <c r="F26" s="15" t="s">
-        <v>103</v>
+      <c r="F26" s="28" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B27" s="26"/>
       <c r="E27" t="s">
         <v>50</v>
       </c>
-      <c r="F27" s="15" t="s">
-        <v>104</v>
+      <c r="F27" s="28" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B28" s="26">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" t="s">
+        <v>336</v>
+      </c>
       <c r="E28" t="s">
         <v>52</v>
       </c>
-      <c r="F28" s="15" t="s">
-        <v>105</v>
+      <c r="F28" s="28" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B29" s="26"/>
       <c r="E29" t="s">
         <v>53</v>
       </c>
-      <c r="F29" s="15" t="s">
-        <v>106</v>
+      <c r="F29" s="28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B30" s="26"/>
+      <c r="E30" t="s">
+        <v>329</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B31" s="26"/>
+      <c r="E31" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="F31" s="28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B32" s="31"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="F32" s="35" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1690,227 +3401,3010 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB0A7D6D-3CE1-48ED-839F-BFFA77815065}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="B15" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView zoomScale="59" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.26953125" customWidth="1"/>
+    <col min="1" max="1" width="13.7265625" customWidth="1"/>
+    <col min="2" max="2" width="26.6328125" customWidth="1"/>
     <col min="3" max="3" width="41.1796875" customWidth="1"/>
     <col min="4" max="4" width="21.90625" customWidth="1"/>
-    <col min="5" max="5" width="18.1796875" customWidth="1"/>
+    <col min="5" max="5" width="25.81640625" customWidth="1"/>
     <col min="6" max="6" width="23.90625" customWidth="1"/>
-    <col min="7" max="7" width="26.26953125" customWidth="1"/>
-    <col min="8" max="8" width="18.453125" customWidth="1"/>
+    <col min="7" max="7" width="33.81640625" customWidth="1"/>
+    <col min="8" max="8" width="32.90625" customWidth="1"/>
     <col min="9" max="9" width="17.453125" customWidth="1"/>
-    <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="12" max="12" width="20.6328125" customWidth="1"/>
+    <col min="10" max="10" width="32.7265625" customWidth="1"/>
+    <col min="11" max="11" width="27.6328125" customWidth="1"/>
+    <col min="12" max="12" width="56.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="2" spans="1:12" ht="131" x14ac:dyDescent="0.4">
+      <c r="A2" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="L3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="87" x14ac:dyDescent="0.35">
+      <c r="A4" s="78"/>
+      <c r="B4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F4" t="s">
+        <v>192</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="L4" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="116" x14ac:dyDescent="0.35">
+      <c r="A5" s="78"/>
+      <c r="B5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G5" t="s">
+        <v>206</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="J5" t="s">
+        <v>262</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="L5" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="78"/>
+      <c r="B6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="I6" t="s">
+        <v>259</v>
+      </c>
+      <c r="J6" t="s">
+        <v>262</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="L6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="87" x14ac:dyDescent="0.35">
+      <c r="A7" s="78"/>
+      <c r="B7" t="s">
+        <v>287</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="J7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="L7" s="69" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="L1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="L8" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="87" x14ac:dyDescent="0.35">
+      <c r="A9" s="78"/>
+      <c r="B9" t="s">
+        <v>289</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
+      <c r="D9" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="L9" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="87" x14ac:dyDescent="0.35">
+      <c r="A10" s="78"/>
+      <c r="B10" t="s">
+        <v>290</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>123</v>
       </c>
+      <c r="D10" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F10" t="s">
+        <v>197</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="L10" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="78"/>
+      <c r="B11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="I11" t="s">
+        <v>259</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="L11" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="87" x14ac:dyDescent="0.35">
+      <c r="A12" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" t="s">
+        <v>292</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="L12" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="87" x14ac:dyDescent="0.35">
+      <c r="A13" s="77"/>
+      <c r="B13" t="s">
+        <v>293</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E13" t="s">
+        <v>174</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="L13" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="87" x14ac:dyDescent="0.35">
+      <c r="A14" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" t="s">
+        <v>294</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" t="s">
+        <v>175</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="L14" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="87" x14ac:dyDescent="0.35">
+      <c r="A15" s="77"/>
+      <c r="B15" t="s">
+        <v>295</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E15" t="s">
+        <v>176</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="L15" s="69" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="87" x14ac:dyDescent="0.35">
+      <c r="A16" s="77"/>
+      <c r="B16" t="s">
+        <v>296</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E16" t="s">
+        <v>179</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I16" t="s">
+        <v>259</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K16" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="L16" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="77"/>
+      <c r="B17" t="s">
+        <v>297</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="K17" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="L17" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="76" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" t="s">
+        <v>298</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F18" t="s">
+        <v>201</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="K18" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="L18" s="69" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="76"/>
+      <c r="B19" t="s">
+        <v>299</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G19" t="s">
+        <v>210</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="J19" t="s">
+        <v>210</v>
+      </c>
+      <c r="K19" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="L19" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" t="s">
+        <v>300</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F20" t="s">
+        <v>201</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="K20" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="L20" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="77" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" t="s">
+        <v>301</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F21" t="s">
+        <v>203</v>
+      </c>
+      <c r="G21" t="s">
+        <v>209</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="I21" t="s">
+        <v>259</v>
+      </c>
+      <c r="J21" t="s">
+        <v>209</v>
+      </c>
+      <c r="K21" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="L21" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="77"/>
+      <c r="B22" t="s">
+        <v>302</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G22" t="s">
+        <v>220</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="J22" t="s">
+        <v>220</v>
+      </c>
+      <c r="K22" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="L22" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" t="s">
+        <v>303</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F23" t="s">
+        <v>203</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K23" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="L23" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="116" x14ac:dyDescent="0.35">
+      <c r="A24" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="s">
+        <v>304</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F24" t="s">
+        <v>204</v>
+      </c>
+      <c r="G24" t="s">
+        <v>222</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="J24" t="s">
+        <v>222</v>
+      </c>
+      <c r="K24" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="L24" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="77"/>
+      <c r="B25" t="s">
+        <v>305</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G25" t="s">
+        <v>223</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="J25" t="s">
+        <v>264</v>
+      </c>
+      <c r="K25" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="L25" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="116" x14ac:dyDescent="0.35">
+      <c r="A26" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>278</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E26" t="s">
+        <v>184</v>
+      </c>
+      <c r="F26" t="s">
+        <v>198</v>
+      </c>
+      <c r="G26" t="s">
+        <v>224</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="I26" t="s">
+        <v>259</v>
+      </c>
+      <c r="J26" t="s">
+        <v>224</v>
+      </c>
+      <c r="K26" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="L26" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="116" x14ac:dyDescent="0.35">
+      <c r="A27" s="77"/>
+      <c r="B27" t="s">
+        <v>279</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E27" t="s">
+        <v>185</v>
+      </c>
+      <c r="F27" t="s">
+        <v>198</v>
+      </c>
+      <c r="G27" t="s">
+        <v>225</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="K27" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="L27" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="116" x14ac:dyDescent="0.35">
+      <c r="A28" s="77"/>
+      <c r="B28" t="s">
+        <v>280</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G28" t="s">
+        <v>226</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="J28" t="s">
+        <v>226</v>
+      </c>
+      <c r="K28" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="L28" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="117" x14ac:dyDescent="0.45">
+      <c r="A29" s="77"/>
+      <c r="B29" t="s">
+        <v>282</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G29" t="s">
+        <v>227</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="J29" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="K29" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="L29" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="116" x14ac:dyDescent="0.35">
+      <c r="A30" s="77"/>
+      <c r="B30" t="s">
+        <v>281</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="K30" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="L30" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF03425F-E3D8-476A-B207-D0E0CA837B6A}">
+  <dimension ref="B2:K17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="7.6328125" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" customWidth="1"/>
+    <col min="3" max="3" width="28.6328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="27.453125" customWidth="1"/>
+    <col min="6" max="6" width="17.7265625" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.26953125" customWidth="1"/>
+    <col min="9" max="9" width="20.90625" customWidth="1"/>
+    <col min="10" max="10" width="26" customWidth="1"/>
+    <col min="11" max="11" width="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="31" x14ac:dyDescent="0.7">
+      <c r="B2" s="42"/>
+      <c r="C2" s="43" t="s">
+        <v>339</v>
+      </c>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+    </row>
+    <row r="3" spans="2:11" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="24.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>323</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>312</v>
+      </c>
+      <c r="K4" s="25"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B5" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="27">
+        <v>1</v>
+      </c>
+      <c r="I5" s="27">
+        <v>0</v>
+      </c>
+      <c r="J5" s="21">
+        <v>1</v>
+      </c>
+      <c r="K5" s="28"/>
+    </row>
+    <row r="6" spans="2:11" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="79"/>
+      <c r="C6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="27">
+        <v>1</v>
+      </c>
+      <c r="I6" s="27">
+        <v>0</v>
+      </c>
+      <c r="J6" s="29">
+        <v>1</v>
+      </c>
+      <c r="K6" s="28"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B7" s="79"/>
+      <c r="C7" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="27">
+        <v>0.75</v>
+      </c>
+      <c r="I7" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="J7" s="29">
+        <v>1</v>
+      </c>
+      <c r="K7" s="28"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B8" s="79"/>
+      <c r="C8" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="27">
+        <v>1</v>
+      </c>
+      <c r="I8" s="27">
+        <v>0</v>
+      </c>
+      <c r="J8" s="29">
+        <v>1</v>
+      </c>
+      <c r="K8" s="28"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B9" s="79"/>
+      <c r="C9" s="30" t="s">
+        <v>315</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="27">
+        <v>1</v>
+      </c>
+      <c r="I9" s="27">
+        <v>0</v>
+      </c>
+      <c r="J9" s="29">
+        <v>1</v>
+      </c>
+      <c r="K9" s="28"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B10" s="79"/>
+      <c r="C10" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="27">
+        <v>1</v>
+      </c>
+      <c r="I10" s="27">
+        <v>0</v>
+      </c>
+      <c r="J10" s="29">
+        <v>1</v>
+      </c>
+      <c r="K10" s="28"/>
+    </row>
+    <row r="11" spans="2:11" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="79"/>
+      <c r="C11" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="27">
+        <v>1</v>
+      </c>
+      <c r="I11" s="27">
+        <v>0</v>
+      </c>
+      <c r="J11" s="29">
+        <v>1</v>
+      </c>
+      <c r="K11" s="28"/>
+    </row>
+    <row r="12" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="B12" s="79"/>
+      <c r="C12" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="27">
+        <v>1</v>
+      </c>
+      <c r="I12" s="27">
+        <v>0</v>
+      </c>
+      <c r="J12" s="29">
+        <v>1</v>
+      </c>
+      <c r="K12" s="28"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B13" s="79"/>
+      <c r="C13" t="s">
+        <v>319</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="27">
+        <v>1</v>
+      </c>
+      <c r="I13" s="27">
+        <v>0</v>
+      </c>
+      <c r="J13" s="29">
+        <v>1</v>
+      </c>
+      <c r="K13" s="28"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B14" s="79"/>
+      <c r="C14" t="s">
+        <v>320</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="I14" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="J14" s="29">
+        <v>1</v>
+      </c>
+      <c r="K14" s="28"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B15" s="80"/>
+      <c r="C15" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="D15" s="32">
+        <v>5</v>
+      </c>
+      <c r="E15" s="32">
+        <v>5</v>
+      </c>
+      <c r="F15" s="32">
+        <v>5</v>
+      </c>
+      <c r="G15" s="32">
+        <v>0</v>
+      </c>
+      <c r="H15" s="33">
+        <v>1</v>
+      </c>
+      <c r="I15" s="33">
+        <v>0</v>
+      </c>
+      <c r="J15" s="34">
+        <v>1</v>
+      </c>
+      <c r="K15" s="35"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C17" s="41"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B5:B15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A169F1B1-2987-4245-B9CE-B1C2B48521F8}">
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.90625" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" customWidth="1"/>
+    <col min="5" max="6" width="25.6328125" customWidth="1"/>
+    <col min="7" max="7" width="21.54296875" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" customWidth="1"/>
+    <col min="10" max="10" width="15.36328125" customWidth="1"/>
+    <col min="11" max="11" width="15.26953125" customWidth="1"/>
+    <col min="12" max="12" width="20.7265625" customWidth="1"/>
+    <col min="13" max="13" width="16" customWidth="1"/>
+    <col min="14" max="14" width="18.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.5">
+      <c r="A1" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="174" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>353</v>
+      </c>
       <c r="C2" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
+        <v>354</v>
+      </c>
+      <c r="D2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="J2" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="K2" s="53">
+        <v>45972</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>364</v>
+      </c>
       <c r="C3" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="87" x14ac:dyDescent="0.35">
+        <v>365</v>
+      </c>
+      <c r="D3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="J3" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="K3" s="53">
+        <v>45972</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{6A477264-2DBA-4910-ADC2-DA607FB71C19}"/>
+    <hyperlink ref="J3" r:id="rId2" xr:uid="{6A12477C-8710-441C-AD77-A50831EF43EE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE246264-066E-4EE8-A590-3E9DCC9B6DD9}">
+  <dimension ref="B3:H32"/>
+  <sheetViews>
+    <sheetView zoomScale="67" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15.54296875" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" customWidth="1"/>
+    <col min="4" max="4" width="17.36328125" customWidth="1"/>
+    <col min="5" max="6" width="27" customWidth="1"/>
+    <col min="7" max="7" width="15.6328125" customWidth="1"/>
+    <col min="8" max="8" width="17.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B3" s="36" t="s">
+        <v>325</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>326</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>327</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B4" s="81" t="s">
+        <v>449</v>
+      </c>
       <c r="C4" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="116" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G4" s="46"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B5" s="79"/>
       <c r="C5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="C6" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="87" x14ac:dyDescent="0.35">
-      <c r="C7" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G5" s="46"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B6" s="79"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G6" s="46"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B7" s="79"/>
+      <c r="D7" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G7" s="48"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B8" s="79"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G8" s="46"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B9" s="79"/>
+      <c r="D9" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" t="s">
+        <v>287</v>
+      </c>
+      <c r="F9" t="s">
+        <v>273</v>
+      </c>
+      <c r="G9" s="46"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B10" s="79"/>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" t="s">
+        <v>288</v>
+      </c>
+      <c r="F10" t="s">
+        <v>273</v>
+      </c>
+      <c r="G10" s="46"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B11" s="79"/>
+      <c r="D11" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" t="s">
+        <v>289</v>
+      </c>
+      <c r="F11" t="s">
+        <v>276</v>
+      </c>
+      <c r="G11" s="46" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B12" s="79"/>
+      <c r="D12" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" t="s">
+        <v>290</v>
+      </c>
+      <c r="F12" t="s">
+        <v>273</v>
+      </c>
+      <c r="G12" s="46"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B13" s="79"/>
+      <c r="D13" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" t="s">
+        <v>291</v>
+      </c>
+      <c r="F13" t="s">
+        <v>273</v>
+      </c>
+      <c r="G13" s="48"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B14" s="79"/>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
+        <v>292</v>
+      </c>
+      <c r="F14" t="s">
+        <v>273</v>
+      </c>
+      <c r="G14" s="46"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B15" s="79"/>
+      <c r="D15" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s">
+        <v>293</v>
+      </c>
+      <c r="F15" t="s">
+        <v>273</v>
+      </c>
+      <c r="G15" s="46"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B16" s="79"/>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" t="s">
+        <v>294</v>
+      </c>
+      <c r="F16" t="s">
+        <v>273</v>
+      </c>
+      <c r="G16" s="48"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B17" s="79"/>
+      <c r="D17" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" t="s">
+        <v>294</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G17" s="46"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B18" s="79"/>
+      <c r="D18" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" t="s">
+        <v>295</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G18" s="46"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B19" s="79"/>
+      <c r="D19" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" t="s">
+        <v>296</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G19" s="46"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B20" s="79"/>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" t="s">
+        <v>298</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G20" s="48"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B21" s="79"/>
+      <c r="D21" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" t="s">
+        <v>299</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G21" s="46"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B22" s="79"/>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" t="s">
+        <v>300</v>
+      </c>
+      <c r="F22" t="s">
+        <v>273</v>
+      </c>
+      <c r="G22" s="46"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B23" s="79"/>
+      <c r="C23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" t="s">
+        <v>301</v>
+      </c>
+      <c r="F23" t="s">
+        <v>273</v>
+      </c>
+      <c r="G23" s="46"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B24" s="79"/>
+      <c r="D24" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" t="s">
+        <v>302</v>
+      </c>
+      <c r="F24" t="s">
+        <v>273</v>
+      </c>
+      <c r="G24" s="46"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B25" s="79"/>
+      <c r="C25" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" t="s">
+        <v>303</v>
+      </c>
+      <c r="F25" t="s">
+        <v>273</v>
+      </c>
+      <c r="G25" s="48"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B26" s="79"/>
+      <c r="C26" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" t="s">
+        <v>304</v>
+      </c>
+      <c r="F26" t="s">
+        <v>273</v>
+      </c>
+      <c r="G26" s="46"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B27" s="79"/>
+      <c r="D27" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" t="s">
+        <v>305</v>
+      </c>
+      <c r="F27" t="s">
+        <v>276</v>
+      </c>
+      <c r="G27" s="46" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B28" s="79"/>
+      <c r="D28" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" t="s">
+        <v>278</v>
+      </c>
+      <c r="F28" t="s">
+        <v>273</v>
+      </c>
+      <c r="G28" s="48"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B29" s="79"/>
+      <c r="D29" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" t="s">
+        <v>279</v>
+      </c>
+      <c r="F29" t="s">
+        <v>273</v>
+      </c>
+      <c r="G29" s="48"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B30" s="79"/>
+      <c r="D30" s="47" t="s">
+        <v>329</v>
+      </c>
+      <c r="E30" t="s">
+        <v>280</v>
+      </c>
+      <c r="F30" t="s">
+        <v>273</v>
+      </c>
+      <c r="G30" s="48"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B31" s="79"/>
+      <c r="D31" s="47" t="s">
+        <v>330</v>
+      </c>
+      <c r="E31" t="s">
+        <v>282</v>
+      </c>
+      <c r="F31" t="s">
+        <v>273</v>
+      </c>
+      <c r="G31" s="48"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B32" s="80"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="50" t="s">
+        <v>331</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="F32" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="G32" s="51"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B4:B32"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E9A0B3A-DD52-4131-A69A-667FE9ADE55D}">
+  <dimension ref="B2:G93"/>
+  <sheetViews>
+    <sheetView topLeftCell="A77" zoomScale="56" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H110" sqref="H110"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="35.453125" customWidth="1"/>
+    <col min="3" max="3" width="77.90625" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="5" max="5" width="19.26953125" customWidth="1"/>
+    <col min="6" max="6" width="14.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="B2" s="54" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="68" t="s">
+        <v>369</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="105.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="68" t="s">
+        <v>374</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="67" t="s">
+        <v>373</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="73" t="s">
+        <v>376</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="74"/>
+      <c r="C8" s="28" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B9" s="74"/>
+      <c r="C9" s="48" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="74"/>
+      <c r="C10" s="66" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="74"/>
+      <c r="C11" s="66" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="74"/>
+      <c r="C12" s="66" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="B13" s="74"/>
+      <c r="C13" s="48" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="74"/>
+      <c r="C14" s="48" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B15" s="74"/>
+      <c r="C15" s="28" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B16" s="74"/>
+      <c r="C16" s="28" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B17" s="75"/>
+      <c r="C17" s="28" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B18" s="73" t="s">
+        <v>444</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B19" s="74"/>
+      <c r="C19" s="11" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B20" s="75"/>
+      <c r="C20" s="12" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B21" s="73" t="s">
+        <v>381</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B22" s="74"/>
+      <c r="C22" s="28" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B23" s="75"/>
+      <c r="C23" s="35" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B25" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B26" s="55" t="s">
+        <v>385</v>
+      </c>
+      <c r="C26" s="56">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B27" s="55" t="s">
+        <v>386</v>
+      </c>
+      <c r="C27" s="56">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B28" s="55" t="s">
+        <v>387</v>
+      </c>
+      <c r="C28" s="56">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B29" s="55" t="s">
+        <v>388</v>
+      </c>
+      <c r="C29" s="56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="117" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="57" t="s">
+        <v>390</v>
+      </c>
+      <c r="C32" s="58" t="s">
+        <v>391</v>
+      </c>
+      <c r="D32" s="57" t="s">
+        <v>392</v>
+      </c>
+      <c r="E32" s="57" t="s">
+        <v>393</v>
+      </c>
+      <c r="F32" s="58" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B33" s="45">
+        <v>29</v>
+      </c>
+      <c r="C33" s="59">
+        <v>29</v>
+      </c>
+      <c r="D33" s="59">
+        <v>27</v>
+      </c>
+      <c r="E33" s="59">
+        <v>2</v>
+      </c>
+      <c r="F33" s="59"/>
+    </row>
+    <row r="34" spans="2:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="2:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="45"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+    </row>
+    <row r="36" spans="2:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="45"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+    </row>
+    <row r="37" spans="2:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="45"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+    </row>
+    <row r="38" spans="2:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="45"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="59"/>
+    </row>
+    <row r="39" spans="2:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="45"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+    </row>
+    <row r="40" spans="2:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="45"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+    </row>
+    <row r="41" spans="2:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="45"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+    </row>
+    <row r="42" spans="2:7" ht="37" x14ac:dyDescent="0.35">
+      <c r="C42" s="91" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B43" s="36" t="s">
+        <v>325</v>
+      </c>
+      <c r="C43" s="36" t="s">
+        <v>326</v>
+      </c>
+      <c r="D43" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="E43" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="F43" s="36" t="s">
+        <v>327</v>
+      </c>
+      <c r="G43" s="36" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B44" s="44"/>
+      <c r="C44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="87" x14ac:dyDescent="0.35">
-      <c r="C9" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="87" x14ac:dyDescent="0.35">
-      <c r="C10" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="C11" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="87" x14ac:dyDescent="0.35">
-      <c r="C12" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="87" x14ac:dyDescent="0.35">
-      <c r="C13" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="87" x14ac:dyDescent="0.35">
-      <c r="C14" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="87" x14ac:dyDescent="0.35">
-      <c r="C15" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="87" x14ac:dyDescent="0.35">
-      <c r="C16" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="C17" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="C18" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="C19" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="C20" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="C21" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="C22" s="1" t="s">
-        <v>137</v>
+      <c r="E44" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G44" s="46"/>
+    </row>
+    <row r="45" spans="2:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B45" s="44"/>
+      <c r="C45" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G45" s="46"/>
+    </row>
+    <row r="46" spans="2:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B46" s="44"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G46" s="46"/>
+    </row>
+    <row r="47" spans="2:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B47" s="44"/>
+      <c r="D47" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G47" s="48"/>
+    </row>
+    <row r="48" spans="2:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B48" s="26"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G48" s="46"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B49" s="26"/>
+      <c r="D49" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="E49" t="s">
+        <v>287</v>
+      </c>
+      <c r="F49" t="s">
+        <v>273</v>
+      </c>
+      <c r="G49" s="46"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B50" s="26"/>
+      <c r="C50" t="s">
+        <v>31</v>
+      </c>
+      <c r="D50" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="E50" t="s">
+        <v>288</v>
+      </c>
+      <c r="F50" t="s">
+        <v>273</v>
+      </c>
+      <c r="G50" s="46"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B51" s="26"/>
+      <c r="D51" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="E51" t="s">
+        <v>289</v>
+      </c>
+      <c r="F51" t="s">
+        <v>276</v>
+      </c>
+      <c r="G51" s="46" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B52" s="26"/>
+      <c r="D52" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="E52" t="s">
+        <v>290</v>
+      </c>
+      <c r="F52" t="s">
+        <v>273</v>
+      </c>
+      <c r="G52" s="46"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B53" s="26"/>
+      <c r="D53" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E53" t="s">
+        <v>291</v>
+      </c>
+      <c r="F53" t="s">
+        <v>273</v>
+      </c>
+      <c r="G53" s="48"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B54" s="26" t="s">
+        <v>449</v>
+      </c>
+      <c r="C54" t="s">
+        <v>37</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E54" t="s">
+        <v>292</v>
+      </c>
+      <c r="F54" t="s">
+        <v>273</v>
+      </c>
+      <c r="G54" s="46"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B55" s="26"/>
+      <c r="D55" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E55" t="s">
+        <v>293</v>
+      </c>
+      <c r="F55" t="s">
+        <v>273</v>
+      </c>
+      <c r="G55" s="46"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B56" s="26"/>
+      <c r="C56" t="s">
+        <v>40</v>
+      </c>
+      <c r="D56" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="E56" t="s">
+        <v>294</v>
+      </c>
+      <c r="F56" t="s">
+        <v>273</v>
+      </c>
+      <c r="G56" s="48"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B57" s="26"/>
+      <c r="D57" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="E57" t="s">
+        <v>294</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G57" s="46"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B58" s="26"/>
+      <c r="D58" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="E58" t="s">
+        <v>295</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G58" s="46"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B59" s="26"/>
+      <c r="D59" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="E59" t="s">
+        <v>296</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G59" s="46"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B60" s="26"/>
+      <c r="C60" t="s">
+        <v>43</v>
+      </c>
+      <c r="D60" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="E60" t="s">
+        <v>298</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G60" s="48"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B61" s="26"/>
+      <c r="D61" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="E61" t="s">
+        <v>299</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G61" s="46"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B62" s="26"/>
+      <c r="C62" t="s">
+        <v>47</v>
+      </c>
+      <c r="D62" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="E62" t="s">
+        <v>300</v>
+      </c>
+      <c r="F62" t="s">
+        <v>273</v>
+      </c>
+      <c r="G62" s="46"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B63" s="26"/>
+      <c r="C63" t="s">
+        <v>51</v>
+      </c>
+      <c r="D63" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="E63" t="s">
+        <v>301</v>
+      </c>
+      <c r="F63" t="s">
+        <v>273</v>
+      </c>
+      <c r="G63" s="46"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B64" s="26"/>
+      <c r="D64" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="E64" t="s">
+        <v>302</v>
+      </c>
+      <c r="F64" t="s">
+        <v>273</v>
+      </c>
+      <c r="G64" s="46"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B65" s="26"/>
+      <c r="C65" t="s">
+        <v>106</v>
+      </c>
+      <c r="D65" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="E65" t="s">
+        <v>303</v>
+      </c>
+      <c r="F65" t="s">
+        <v>273</v>
+      </c>
+      <c r="G65" s="48"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B66" s="26"/>
+      <c r="C66" t="s">
+        <v>108</v>
+      </c>
+      <c r="D66" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="E66" t="s">
+        <v>304</v>
+      </c>
+      <c r="F66" t="s">
+        <v>273</v>
+      </c>
+      <c r="G66" s="46"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B67" s="26"/>
+      <c r="D67" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="E67" t="s">
+        <v>305</v>
+      </c>
+      <c r="F67" t="s">
+        <v>276</v>
+      </c>
+      <c r="G67" s="46" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B68" s="26"/>
+      <c r="D68" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="E68" t="s">
+        <v>278</v>
+      </c>
+      <c r="F68" t="s">
+        <v>273</v>
+      </c>
+      <c r="G68" s="48"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B69" s="26"/>
+      <c r="D69" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="E69" t="s">
+        <v>279</v>
+      </c>
+      <c r="F69" t="s">
+        <v>273</v>
+      </c>
+      <c r="G69" s="48"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B70" s="26"/>
+      <c r="D70" s="47" t="s">
+        <v>329</v>
+      </c>
+      <c r="E70" t="s">
+        <v>280</v>
+      </c>
+      <c r="F70" t="s">
+        <v>273</v>
+      </c>
+      <c r="G70" s="48"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B71" s="26"/>
+      <c r="D71" s="47" t="s">
+        <v>330</v>
+      </c>
+      <c r="E71" t="s">
+        <v>282</v>
+      </c>
+      <c r="F71" t="s">
+        <v>273</v>
+      </c>
+      <c r="G71" s="48"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B72" s="31"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="50" t="s">
+        <v>331</v>
+      </c>
+      <c r="E72" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="F72" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="G72" s="51"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B75" s="61"/>
+      <c r="C75" s="65" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B76" s="72" t="s">
+        <v>259</v>
+      </c>
+      <c r="C76" s="51" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B77" s="60"/>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B79" s="64" t="s">
+        <v>397</v>
+      </c>
+      <c r="C79" s="25"/>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B80" s="26" t="s">
+        <v>398</v>
+      </c>
+      <c r="C80" s="62" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B81" s="63" t="s">
+        <v>399</v>
+      </c>
+      <c r="C81" s="28" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B82" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="C82" s="35" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B85" s="88" t="s">
+        <v>403</v>
+      </c>
+      <c r="C85" s="70" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B86" s="89"/>
+      <c r="C86" s="11" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B87" s="90"/>
+      <c r="C87" s="12" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B89" s="85" t="s">
+        <v>442</v>
+      </c>
+      <c r="C89" s="82" t="s">
+        <v>439</v>
+      </c>
+      <c r="D89" s="83"/>
+      <c r="E89" s="83"/>
+      <c r="F89" s="83"/>
+      <c r="G89" s="84"/>
+    </row>
+    <row r="90" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B90" s="86"/>
+      <c r="C90" s="82" t="s">
+        <v>440</v>
+      </c>
+      <c r="D90" s="83"/>
+      <c r="E90" s="83"/>
+      <c r="F90" s="83"/>
+      <c r="G90" s="84"/>
+    </row>
+    <row r="91" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B91" s="87"/>
+      <c r="C91" s="82" t="s">
+        <v>441</v>
+      </c>
+      <c r="D91" s="83"/>
+      <c r="E91" s="83"/>
+      <c r="F91" s="83"/>
+      <c r="G91" s="84"/>
+    </row>
+    <row r="93" spans="2:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="B93" s="71" t="s">
+        <v>443</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>445</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B7:B17"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="C90:G90"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C80" r:id="rId1" xr:uid="{5D5FCD63-18F8-431E-878D-5A2B6F3396EF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
